--- a/dados/tabela/tabela-rodada_28.xlsx
+++ b/dados/tabela/tabela-rodada_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,55 +596,105 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Sh_casa</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>SoT_casa</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Saves_casa</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>GCA_casa</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Tklw_casa</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Sh_fora</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>SoT_fora</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Saves_fora</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GCA_fora</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Tklw_fora</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>xG_5casa</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>xG_5fora</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>xG_5total</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>GF_5casa</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>GF_5fora</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>GF_5total</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>GA_5casa</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>GA_5fora</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>GA_5total</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>xG_5sofrido_casa</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>xG_5sofrido_fora</t>
         </is>
@@ -752,36 +802,66 @@
         <v>1.5</v>
       </c>
       <c r="AG2" t="n">
+        <v>15.78571428571429</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.071428571428571</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3.357142857142857</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3.357142857142857</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10.64285714285714</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>16.21428571428572</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>11.64285714285714</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AR2" t="n">
         <v>0.9666666666666667</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AS2" t="n">
         <v>2.578571428571428</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AT2" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AU2" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AV2" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AW2" t="n">
         <v>1</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AX2" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AY2" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AZ2" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="BA2" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -887,36 +967,66 @@
         <v>1.292857142857143</v>
       </c>
       <c r="AG3" t="n">
+        <v>19.35714285714286</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.357142857142857</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.357142857142857</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>11.64285714285714</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>14.14285714285714</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>11.92857142857143</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>2.55</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AR3" t="n">
         <v>1.6</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AS3" t="n">
         <v>3.028571428571428</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AT3" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AU3" t="n">
         <v>2</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AV3" t="n">
         <v>3.5</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AW3" t="n">
         <v>0.5</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AX3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AY3" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AZ3" t="n">
         <v>1</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="BA3" t="n">
         <v>1.566666666666667</v>
       </c>
     </row>
@@ -1022,36 +1132,66 @@
         <v>1.373333333333334</v>
       </c>
       <c r="AG4" t="n">
+        <v>14.30769230769231</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.076923076923077</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.307692307692307</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12.15384615384615</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15.53333333333333</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>12.26666666666667</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>0.95</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AR4" t="n">
         <v>1.066666666666667</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AS4" t="n">
         <v>2.704102564102564</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AT4" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AU4" t="n">
         <v>1</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AV4" t="n">
         <v>2</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AW4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AX4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AY4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AZ4" t="n">
         <v>0.75</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="BA4" t="n">
         <v>0.4666666666666667</v>
       </c>
     </row>
@@ -1157,36 +1297,66 @@
         <v>1.286666666666666</v>
       </c>
       <c r="AG5" t="n">
+        <v>17.69230769230769</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.692307692307693</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.538461538461538</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.461538461538462</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>13.46666666666667</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>10.86666666666667</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.4</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AR5" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AS5" t="n">
         <v>2.898974358974359</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AT5" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AU5" t="n">
         <v>1</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AV5" t="n">
         <v>1.5</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AW5" t="n">
         <v>2</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AX5" t="n">
         <v>1</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AY5" t="n">
         <v>3</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AZ5" t="n">
         <v>1.25</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="BA5" t="n">
         <v>1.333333333333333</v>
       </c>
     </row>
@@ -1292,36 +1462,66 @@
         <v>1.185714285714286</v>
       </c>
       <c r="AG6" t="n">
+        <v>17.21428571428572</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.285714285714286</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.214285714285714</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.785714285714286</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.3</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AR6" t="n">
         <v>0.9666666666666667</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AS6" t="n">
         <v>2.8</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AT6" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AU6" t="n">
         <v>1</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AV6" t="n">
         <v>2.5</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AX6" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AY6" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AZ6" t="n">
         <v>0.7</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="BA6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1427,36 +1627,66 @@
         <v>1.878571428571429</v>
       </c>
       <c r="AG7" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>4.928571428571429</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>11.14285714285714</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5.285714285714286</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9.428571428571429</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AR7" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AS7" t="n">
         <v>2.571428571428571</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AT7" t="n">
         <v>1</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AU7" t="n">
         <v>1</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AV7" t="n">
         <v>2</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AW7" t="n">
         <v>1</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AX7" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AY7" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AZ7" t="n">
         <v>0.95</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="BA7" t="n">
         <v>2.433333333333333</v>
       </c>
     </row>
@@ -1562,36 +1792,66 @@
         <v>1.107142857142857</v>
       </c>
       <c r="AG8" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4.928571428571429</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.214285714285714</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.214285714285714</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>10.14285714285714</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>0.6</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AR8" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AS8" t="n">
         <v>2.357142857142857</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AT8" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AU8" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AV8" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AX8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AY8" t="n">
         <v>1</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AZ8" t="n">
         <v>0.7000000000000001</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="BA8" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1697,36 +1957,66 @@
         <v>1.328571428571429</v>
       </c>
       <c r="AG9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.785714285714286</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.214285714285714</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>11.21428571428571</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>2.05</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AR9" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AS9" t="n">
         <v>2.942857142857143</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AT9" t="n">
         <v>2</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AU9" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AV9" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AW9" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AX9" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AY9" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AZ9" t="n">
         <v>1.45</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="BA9" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -1832,36 +2122,66 @@
         <v>1.784615384615384</v>
       </c>
       <c r="AG10" t="n">
+        <v>14.73333333333333</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8.266666666666667</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>16.69230769230769</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5.461538461538462</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.846153846153846</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>12.92307692307692</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>1.1</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AR10" t="n">
         <v>0.35</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AS10" t="n">
         <v>2.668717948717949</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AT10" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AU10" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AV10" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AW10" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AX10" t="n">
         <v>2</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AY10" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AZ10" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="BA10" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -1967,36 +2287,66 @@
         <v>1.207692307692308</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.266666666666667</v>
+        <v>16.53333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.95</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.798974358974359</v>
+        <v>2.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>13.30769230769231</v>
       </c>
       <c r="AM11" t="n">
-        <v>1</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="AO11" t="n">
         <v>2</v>
       </c>
       <c r="AP11" t="n">
+        <v>11.30769230769231</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2.798974358974359</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>0.4666666666666667</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="BA11" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -2102,36 +2452,66 @@
         <v>1.207142857142857</v>
       </c>
       <c r="AG12" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.214285714285714</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13.92857142857143</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>8.785714285714286</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>1.133333333333334</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AR12" t="n">
         <v>0.4</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AS12" t="n">
         <v>2.014285714285714</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AT12" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AU12" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AV12" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AW12" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AX12" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AY12" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AZ12" t="n">
         <v>0.7999999999999999</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="BA12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,36 +2617,66 @@
         <v>1.442857142857143</v>
       </c>
       <c r="AG13" t="n">
+        <v>14.14285714285714</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9.428571428571429</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>14.57142857142857</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>9.928571428571429</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>1.633333333333334</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AR13" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AS13" t="n">
         <v>2.092857142857143</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AT13" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AU13" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AV13" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AW13" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AX13" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AY13" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AZ13" t="n">
         <v>1.133333333333333</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="BA13" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -2372,36 +2782,66 @@
         <v>1.692857142857143</v>
       </c>
       <c r="AG14" t="n">
+        <v>15.92857142857143</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>10.78571428571429</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>1.366666666666666</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AR14" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AS14" t="n">
         <v>2.614285714285714</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AT14" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AU14" t="n">
         <v>3</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AV14" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AW14" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AX14" t="n">
         <v>2.5</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AY14" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AZ14" t="n">
         <v>1.233333333333333</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="BA14" t="n">
         <v>2.05</v>
       </c>
     </row>
@@ -2507,36 +2947,66 @@
         <v>1.385714285714286</v>
       </c>
       <c r="AG15" t="n">
+        <v>15.28571428571429</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3.928571428571428</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>11.57142857142857</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>3.357142857142857</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>10.07142857142857</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AR15" t="n">
         <v>0.7000000000000001</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AS15" t="n">
         <v>2.4</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AT15" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AU15" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AV15" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AW15" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AX15" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AY15" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AZ15" t="n">
         <v>1.4</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="BA15" t="n">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -2642,36 +3112,66 @@
         <v>1.685714285714285</v>
       </c>
       <c r="AG16" t="n">
+        <v>15.35714285714286</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.428571428571429</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>9.928571428571429</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18.64285714285714</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.642857142857143</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>8.642857142857142</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>1.1</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AR16" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AS16" t="n">
         <v>2.092857142857143</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AT16" t="n">
         <v>1</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AU16" t="n">
         <v>2</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AV16" t="n">
         <v>3</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AW16" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AX16" t="n">
         <v>2.5</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AY16" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AZ16" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="BA16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2777,36 +3277,66 @@
         <v>1.392857142857143</v>
       </c>
       <c r="AG17" t="n">
+        <v>13.64285714285714</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3.785714285714286</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4.785714285714286</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.214285714285714</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2.357142857142857</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>10.64285714285714</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1.1</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AR17" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AS17" t="n">
         <v>2</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AT17" t="n">
         <v>2</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AU17" t="n">
         <v>1</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AV17" t="n">
         <v>3</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AW17" t="n">
         <v>2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AX17" t="n">
         <v>1</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AY17" t="n">
         <v>3</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AZ17" t="n">
         <v>1</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="BA17" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -2912,36 +3442,66 @@
         <v>1.514285714285714</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.133333333333333</v>
+        <v>14.35714285714286</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.95</v>
+        <v>4.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.635714285714286</v>
+        <v>2.928571428571428</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.5</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.5</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.3333333333333333</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="AN18" t="n">
         <v>2.5</v>
       </c>
       <c r="AO18" t="n">
+        <v>2.928571428571428</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2.635714285714286</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY18" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AZ18" t="n">
         <v>0.8666666666666666</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="BA18" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -3047,36 +3607,66 @@
         <v>1.735714285714286</v>
       </c>
       <c r="AG19" t="n">
+        <v>13.64285714285714</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>4.357142857142857</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.642857142857143</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17.78571428571428</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>6.714285714285714</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>3.785714285714286</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>11.21428571428571</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>2.1</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AR19" t="n">
         <v>1.866666666666666</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AS19" t="n">
         <v>2.357142857142857</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AT19" t="n">
         <v>2.5</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AU19" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AV19" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AW19" t="n">
         <v>2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AX19" t="n">
         <v>3</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AY19" t="n">
         <v>5</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AZ19" t="n">
         <v>1.65</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="BA19" t="n">
         <v>1.533333333333333</v>
       </c>
     </row>
@@ -3182,36 +3772,66 @@
         <v>1.9</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.8666666666666666</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.65</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.071428571428572</v>
+        <v>3.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="AK20" t="n">
-        <v>1.5</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.166666666666667</v>
+        <v>15.78571428571429</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.666666666666667</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="AN20" t="n">
         <v>3</v>
       </c>
       <c r="AO20" t="n">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>10.64285714285714</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2.071428571428572</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY20" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AZ20" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="BA20" t="n">
         <v>2.05</v>
       </c>
     </row>
@@ -3317,36 +3937,66 @@
         <v>1.764285714285714</v>
       </c>
       <c r="AG21" t="n">
+        <v>14.64285714285714</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>3.357142857142857</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>9.142857142857142</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>2.05</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AR21" t="n">
         <v>1.033333333333333</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AS21" t="n">
         <v>2.607142857142857</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AT21" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AU21" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AV21" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AW21" t="n">
         <v>2</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AX21" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AY21" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AZ21" t="n">
         <v>1.15</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="BA21" t="n">
         <v>1.333333333333333</v>
       </c>
     </row>
